--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS2.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 700-POS-POS2.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="145">
-  <si>
-    <t>Signal_Value_1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="150">
   <si>
     <t>Signal_Value_2</t>
   </si>
@@ -375,6 +372,27 @@
     <t>Signal_Value_118</t>
   </si>
   <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
+    <t>Signal_Value_120</t>
+  </si>
+  <si>
+    <t>Signal_Value_121</t>
+  </si>
+  <si>
+    <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
+  </si>
+  <si>
+    <t>Signal_Value_124</t>
+  </si>
+  <si>
+    <t>Signal_Value_125</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -447,10 +465,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -811,15 +826,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DO6"/>
+  <dimension ref="A1:DU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:119">
+    <row r="1" spans="1:125">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1175,10 +1190,28 @@
       <c r="DO1" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:119">
+    <row r="2" spans="1:125">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1187,37 +1220,37 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1592584188979818</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.0428927897124767</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.03757971657793573</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1761638806775967</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1031590156410403</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00672959398620167</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0539264600447139</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0529189120116446</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05944351695911355</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1226,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.002554743578829594</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1235,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.0001643952160363623</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1247,40 +1280,40 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0004015460430818656</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.09842972957450168</v>
       </c>
       <c r="Z2">
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.06928767799457614</v>
       </c>
       <c r="AB2">
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.006452939486847504</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.06400399434685862</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.04612072120265001</v>
       </c>
       <c r="AG2">
         <v>0</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.01451011176114932</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.006001836286763858</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -1370,100 +1403,100 @@
         <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.003492691346511109</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.01225631274883058</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0009238044168158024</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.02465782286166009</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.008380222411976626</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.02627041285069108</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.03830300304258222</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.001956845417452042</v>
+        <v>0</v>
       </c>
       <c r="BU2">
         <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.01166383698798808</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.08569628257458191</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.08423188527075759</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.004441984990865683</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.03313543729282651</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.08552966119620135</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.1114136259025525</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.06020934097957126</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.005186457046649882</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.01719296296852264</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.04670496085023493</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.05605720151278355</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.06770338908170037</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.05320494453956461</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.02259572085364598</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.007634764470220583</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0003119320143911844</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0167695669540849</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.02103694053304755</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.01610398058549412</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.01747352338814331</v>
+        <v>0</v>
       </c>
       <c r="CQ2">
-        <v>0.02548913448603592</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.03397135042361599</v>
+        <v>0</v>
       </c>
       <c r="CS2">
         <v>0</v>
@@ -1534,10 +1567,28 @@
       <c r="DO2">
         <v>0</v>
       </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>0</v>
+      </c>
+      <c r="DR2">
+        <v>0</v>
+      </c>
+      <c r="DS2">
+        <v>0</v>
+      </c>
+      <c r="DT2">
+        <v>0</v>
+      </c>
+      <c r="DU2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:119">
+    <row r="3" spans="1:125">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1588,100 +1639,100 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.05335759838325946</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.05705276192168367</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.04753760710706064</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.02701506985354993</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.009073431388621718</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>8.449315148525856E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003018289592305701</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.01500673810845229</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.03429185105747305</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.05428205190529542</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06600877637845953</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.06914492825624838</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.05796080654921262</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.03692608687338454</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0164646642487038</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004321303082543033</v>
+        <v>0</v>
       </c>
       <c r="AH3">
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.001387768908254963</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.004038632832924253</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.001230767839557085</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0008734134641582025</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.01404828737938258</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.03285830507189112</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.04027072210588258</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.02889162718715937</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.01106484577460735</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>7.838061612549699E-05</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.005615356918031025</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.02683618103554253</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.07554576988424062</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.1330477729876275</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.07266571013687627</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1807,96 +1858,114 @@
         <v>0</v>
       </c>
       <c r="CM3">
-        <v>0</v>
+        <v>0.2395771613686755</v>
       </c>
       <c r="CN3">
-        <v>0</v>
+        <v>0.003914521291278734</v>
       </c>
       <c r="CO3">
-        <v>0</v>
+        <v>0.005461113796744077</v>
       </c>
       <c r="CP3">
-        <v>0</v>
+        <v>0.1381957774068998</v>
       </c>
       <c r="CQ3">
-        <v>0</v>
+        <v>0.1282311586793818</v>
       </c>
       <c r="CR3">
-        <v>0</v>
+        <v>0.03085473978214415</v>
       </c>
       <c r="CS3">
-        <v>0</v>
+        <v>0.009695778056835183</v>
       </c>
       <c r="CT3">
-        <v>0</v>
+        <v>0.0208478088101975</v>
       </c>
       <c r="CU3">
-        <v>0</v>
+        <v>0.0776425935423615</v>
       </c>
       <c r="CV3">
-        <v>0</v>
+        <v>0.09906634433780055</v>
       </c>
       <c r="CW3">
-        <v>0</v>
+        <v>0.006503066836795159</v>
       </c>
       <c r="CX3">
-        <v>0</v>
+        <v>0.005868984099785879</v>
       </c>
       <c r="CY3">
-        <v>0</v>
+        <v>0.007402514023988856</v>
       </c>
       <c r="CZ3">
-        <v>0</v>
+        <v>2.448488630646969E-05</v>
       </c>
       <c r="DA3">
-        <v>0</v>
+        <v>4.009829352443597E-05</v>
       </c>
       <c r="DB3">
-        <v>0</v>
+        <v>0.004033597959129506</v>
       </c>
       <c r="DC3">
-        <v>0</v>
+        <v>0.00307744550969311</v>
       </c>
       <c r="DD3">
-        <v>0</v>
+        <v>9.008123127233257E-06</v>
       </c>
       <c r="DE3">
         <v>0</v>
       </c>
       <c r="DF3">
-        <v>0</v>
+        <v>0.001591557677144155</v>
       </c>
       <c r="DG3">
-        <v>0</v>
+        <v>0.01545227956292045</v>
       </c>
       <c r="DH3">
-        <v>0</v>
+        <v>0.07422509359048123</v>
       </c>
       <c r="DI3">
-        <v>0</v>
+        <v>0.001852495647560401</v>
       </c>
       <c r="DJ3">
-        <v>0</v>
+        <v>0.02215306988796444</v>
       </c>
       <c r="DK3">
-        <v>0</v>
+        <v>0.002268882406280049</v>
       </c>
       <c r="DL3">
-        <v>0</v>
+        <v>0.01167946705632595</v>
       </c>
       <c r="DM3">
-        <v>0</v>
+        <v>0.0004370906669002747</v>
       </c>
       <c r="DN3">
-        <v>0</v>
+        <v>0.0286626497887216</v>
       </c>
       <c r="DO3">
+        <v>0.01089991972512574</v>
+      </c>
+      <c r="DP3">
+        <v>0.004237972954428402</v>
+      </c>
+      <c r="DQ3">
+        <v>0.005168261966563338</v>
+      </c>
+      <c r="DR3">
+        <v>0.04092506226491433</v>
+      </c>
+      <c r="DS3">
+        <v>0</v>
+      </c>
+      <c r="DT3">
+        <v>0</v>
+      </c>
+      <c r="DU3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:119">
+    <row r="4" spans="1:125">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2115,192 +2184,210 @@
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001251773888613585</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.001350669540896747</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.001218340634503417</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.002528068421405177</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.000931970464211366</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.004094685578777875</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.001562142314151919</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.01388868225739967</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.01092439147405558</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.04761731490165037</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.04119046595711196</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0002530334430838903</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.001105184951320732</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.009472514536102889</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.05181735771684148</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.03423268206379455</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0004827950997021799</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.00910477448435726</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.06911340694752811</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.1235773252896382</v>
+        <v>0.1770741469238001</v>
       </c>
       <c r="CP4">
-        <v>0.1100979724008166</v>
+        <v>0.0001686920142000247</v>
       </c>
       <c r="CQ4">
-        <v>0.04016530823972307</v>
+        <v>0.008782479039910362</v>
       </c>
       <c r="CR4">
-        <v>0.0003161628211367315</v>
+        <v>0.05872120398235554</v>
       </c>
       <c r="CS4">
-        <v>0.04405773697682893</v>
+        <v>0.1494426351437396</v>
       </c>
       <c r="CT4">
-        <v>0.09515357216494076</v>
+        <v>0.09297403721601052</v>
       </c>
       <c r="CU4">
-        <v>0.09183150175803878</v>
+        <v>0.01271342548055612</v>
       </c>
       <c r="CV4">
-        <v>0.06658552987109342</v>
+        <v>0.006243086070039848</v>
       </c>
       <c r="CW4">
-        <v>0.05654858884682253</v>
+        <v>0.02886239480274361</v>
       </c>
       <c r="CX4">
-        <v>0.04287926323263029</v>
+        <v>0.1495242528566784</v>
       </c>
       <c r="CY4">
-        <v>0.009004555466260607</v>
+        <v>0.02202407911031578</v>
       </c>
       <c r="CZ4">
-        <v>0.001888973741820225</v>
+        <v>0.001696608506539312</v>
       </c>
       <c r="DA4">
-        <v>0.01575325451474129</v>
+        <v>0.03331381434294232</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>0.01031366153596523</v>
       </c>
       <c r="DC4">
-        <v>0</v>
+        <v>0.003055399133815697</v>
       </c>
       <c r="DD4">
-        <v>0</v>
+        <v>0.002316835936476801</v>
       </c>
       <c r="DE4">
-        <v>0</v>
+        <v>0.001766263649109844</v>
       </c>
       <c r="DF4">
-        <v>0</v>
+        <v>0.003753398145686782</v>
       </c>
       <c r="DG4">
         <v>0</v>
       </c>
       <c r="DH4">
-        <v>0</v>
+        <v>0.0005585433002769641</v>
       </c>
       <c r="DI4">
-        <v>0</v>
+        <v>0.01108904680835797</v>
       </c>
       <c r="DJ4">
-        <v>0</v>
+        <v>0.07679603036363877</v>
       </c>
       <c r="DK4">
         <v>0</v>
       </c>
       <c r="DL4">
-        <v>0</v>
+        <v>0.03741281454848717</v>
       </c>
       <c r="DM4">
-        <v>0</v>
+        <v>0.0004140000508472079</v>
       </c>
       <c r="DN4">
-        <v>0</v>
+        <v>0.002953813717225676</v>
       </c>
       <c r="DO4">
         <v>0</v>
       </c>
+      <c r="DP4">
+        <v>0.03870309891431466</v>
+      </c>
+      <c r="DQ4">
+        <v>0.01859028147894442</v>
+      </c>
+      <c r="DR4">
+        <v>0.001275621509955258</v>
+      </c>
+      <c r="DS4">
+        <v>0.02787325611982147</v>
+      </c>
+      <c r="DT4">
+        <v>0.02158707929724474</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:119">
+    <row r="5" spans="1:125">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5">
-        <v>0.07448657604322743</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03950289426795933</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03340989806593316</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03134128631479124</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.004698431091987932</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.007572070125837412</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07930873571324203</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1512144696544144</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1298903341581242</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1045873695731333</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.06065567515823338</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01195681615669978</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.006192003963163403</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.004816121999330843</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2312,46 +2399,46 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>3.753247437168345E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0007739317515411991</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0144070069803655</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.02230987262204612</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.004744576950260006</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.00150686817817632</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.01084794952245161</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.004541243033692769</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.001984032742280367</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.03249594908216287</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.05982930928305632</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.06368408775366759</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.03619605544363293</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.007008901896216858</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -2534,87 +2621,105 @@
         <v>0</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>0.1698967765096834</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>0.0003841324446883764</v>
       </c>
       <c r="CR5">
-        <v>0</v>
+        <v>0.02030591355166355</v>
       </c>
       <c r="CS5">
-        <v>0</v>
+        <v>0.05703752579605322</v>
       </c>
       <c r="CT5">
-        <v>0</v>
+        <v>0.1675709997509552</v>
       </c>
       <c r="CU5">
-        <v>0</v>
+        <v>0.08553921887282007</v>
       </c>
       <c r="CV5">
-        <v>0</v>
+        <v>0.002160809682770575</v>
       </c>
       <c r="CW5">
-        <v>0</v>
+        <v>0.01144049009388168</v>
       </c>
       <c r="CX5">
-        <v>0</v>
+        <v>0.115091023526201</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>0.1052303188899623</v>
       </c>
       <c r="CZ5">
-        <v>0</v>
+        <v>0.02071942631909827</v>
       </c>
       <c r="DA5">
-        <v>0</v>
+        <v>0.003002028496394697</v>
       </c>
       <c r="DB5">
-        <v>0</v>
+        <v>0.007686190629521735</v>
       </c>
       <c r="DC5">
-        <v>0</v>
+        <v>0.000945953453284075</v>
       </c>
       <c r="DD5">
-        <v>0</v>
+        <v>0.0003171476412889613</v>
       </c>
       <c r="DE5">
-        <v>0</v>
+        <v>0.001423334626005942</v>
       </c>
       <c r="DF5">
-        <v>0</v>
+        <v>0.007652824119269181</v>
       </c>
       <c r="DG5">
-        <v>0</v>
+        <v>0.0001266317220906467</v>
       </c>
       <c r="DH5">
-        <v>0</v>
+        <v>5.235311146078538E-06</v>
       </c>
       <c r="DI5">
-        <v>0</v>
+        <v>0.0003442790487759042</v>
       </c>
       <c r="DJ5">
-        <v>0</v>
+        <v>0.008025275233184286</v>
       </c>
       <c r="DK5">
-        <v>0</v>
+        <v>0.05298638015269581</v>
       </c>
       <c r="DL5">
-        <v>0</v>
+        <v>8.594418953364651E-05</v>
       </c>
       <c r="DM5">
-        <v>0</v>
+        <v>0.02712890141411326</v>
       </c>
       <c r="DN5">
-        <v>0</v>
+        <v>0.002755907507634699</v>
       </c>
       <c r="DO5">
-        <v>0</v>
+        <v>0.01496729802304078</v>
+      </c>
+      <c r="DP5">
+        <v>2.250468845373785E-07</v>
+      </c>
+      <c r="DQ5">
+        <v>0.04595641722032289</v>
+      </c>
+      <c r="DR5">
+        <v>0.03789548047432477</v>
+      </c>
+      <c r="DS5">
+        <v>0.0006436504115361145</v>
+      </c>
+      <c r="DT5">
+        <v>0.01755325914314951</v>
+      </c>
+      <c r="DU5">
+        <v>0.01512100069802444</v>
       </c>
     </row>
-    <row r="6" spans="1:119">
+    <row r="6" spans="1:125">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2875,100 +2980,118 @@
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.002219857499038542</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0007165632929834164</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.02951327822967047</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.009121242491149808</v>
+        <v>0.1501466289879281</v>
       </c>
       <c r="CN6">
-        <v>0.1001562182636696</v>
+        <v>0.004004056154279219</v>
       </c>
       <c r="CO6">
-        <v>0.00420722148871927</v>
+        <v>0.02633581878880988</v>
       </c>
       <c r="CP6">
-        <v>0.1004376020732687</v>
+        <v>0.01132655218552764</v>
       </c>
       <c r="CQ6">
-        <v>0.03083626613607621</v>
+        <v>0.08251525100510523</v>
       </c>
       <c r="CR6">
-        <v>0.0008809227935335159</v>
+        <v>0.1809654233395167</v>
       </c>
       <c r="CS6">
-        <v>0.05822821815290505</v>
+        <v>0.08191363644028998</v>
       </c>
       <c r="CT6">
-        <v>0.006228585390973374</v>
+        <v>0.001040928611307428</v>
       </c>
       <c r="CU6">
-        <v>0.04663114672207128</v>
+        <v>0.00432618133569846</v>
       </c>
       <c r="CV6">
-        <v>0.09933108694118718</v>
+        <v>0.01101163862228063</v>
       </c>
       <c r="CW6">
-        <v>0.01266839471085869</v>
+        <v>0.1286809450699126</v>
       </c>
       <c r="CX6">
-        <v>0.04841760961869863</v>
+        <v>0.01480647931129269</v>
       </c>
       <c r="CY6">
-        <v>0.1214545974089478</v>
+        <v>0.01999580844579615</v>
       </c>
       <c r="CZ6">
-        <v>0.07879018159457399</v>
+        <v>0.05659933791063995</v>
       </c>
       <c r="DA6">
-        <v>0.01764855374905213</v>
+        <v>6.832841310297846E-05</v>
       </c>
       <c r="DB6">
-        <v>0.0007561368607425192</v>
+        <v>0.002779090480240838</v>
       </c>
       <c r="DC6">
-        <v>0.02016765929333773</v>
+        <v>0.007260745354802007</v>
       </c>
       <c r="DD6">
-        <v>0.02574274662474404</v>
+        <v>0.0003178556844538313</v>
       </c>
       <c r="DE6">
-        <v>0.02434828101744295</v>
+        <v>0.007231875330558203</v>
       </c>
       <c r="DF6">
-        <v>0.03026301574902827</v>
+        <v>0.009975477399694824</v>
       </c>
       <c r="DG6">
-        <v>0.04326140554534001</v>
+        <v>0.001560998888772588</v>
       </c>
       <c r="DH6">
-        <v>0.02830442105853941</v>
+        <v>0.05539696940324892</v>
       </c>
       <c r="DI6">
-        <v>0.005073326482274348</v>
+        <v>0.001435816431614494</v>
       </c>
       <c r="DJ6">
-        <v>0.001598095120830835</v>
+        <v>0.03217176862909214</v>
       </c>
       <c r="DK6">
-        <v>0.00974725676010324</v>
+        <v>0.01363521360359226</v>
       </c>
       <c r="DL6">
-        <v>0.008126743870350376</v>
+        <v>0.01531636101002588</v>
       </c>
       <c r="DM6">
-        <v>0.00609325688015947</v>
+        <v>0.00234602823075234</v>
       </c>
       <c r="DN6">
-        <v>0.009729777178060065</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.01930033100166901</v>
+        <v>0.03269262777359214</v>
+      </c>
+      <c r="DP6">
+        <v>0.005227466545262877</v>
+      </c>
+      <c r="DQ6">
+        <v>0.03844988680650187</v>
+      </c>
+      <c r="DR6">
+        <v>0.0004648038063068472</v>
+      </c>
+      <c r="DS6">
+        <v>0</v>
+      </c>
+      <c r="DT6">
+        <v>0</v>
+      </c>
+      <c r="DU6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2978,15 +3101,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DO6"/>
+  <dimension ref="A1:DU6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:119">
+    <row r="1" spans="1:125">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3342,10 +3465,28 @@
       <c r="DO1" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="2" spans="1:119">
+    <row r="2" spans="1:125">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3354,280 +3495,280 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1592584188979818</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1592584188979818</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2021512086104585</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.2397309251883943</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4158948058659909</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5190538215070313</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5190538215070313</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5257834154932329</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.5797098755379468</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6326287875495914</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.6920723045087049</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.6920723045087049</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.6920723045087049</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.6946270480875345</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.6946270480875345</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.6946270480875345</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.6947914433035709</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.6947914433035709</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.6947914433035709</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.6947914433035709</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.6951929893466527</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.7936227189211544</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>0.7936227189211544</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.8629103969157306</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>0.8629103969157306</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.8693633364025781</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.8693633364025781</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>0.9333673307494368</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.9794880519520868</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>0.9794880519520868</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.9939981637132361</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2">
-        <v>0.003492691346511109</v>
+        <v>1</v>
       </c>
       <c r="BN2">
-        <v>0.01574900409534169</v>
+        <v>1</v>
       </c>
       <c r="BO2">
-        <v>0.01667280851215749</v>
+        <v>1</v>
       </c>
       <c r="BP2">
-        <v>0.04133063137381757</v>
+        <v>1</v>
       </c>
       <c r="BQ2">
-        <v>0.0497108537857942</v>
+        <v>1</v>
       </c>
       <c r="BR2">
-        <v>0.07598126663648529</v>
+        <v>1</v>
       </c>
       <c r="BS2">
-        <v>0.1142842696790675</v>
+        <v>1</v>
       </c>
       <c r="BT2">
-        <v>0.1162411150965196</v>
+        <v>1</v>
       </c>
       <c r="BU2">
-        <v>0.1162411150965196</v>
+        <v>1</v>
       </c>
       <c r="BV2">
-        <v>0.1279049520845076</v>
+        <v>1</v>
       </c>
       <c r="BW2">
-        <v>0.2136012346590895</v>
+        <v>1</v>
       </c>
       <c r="BX2">
-        <v>0.2978331199298471</v>
+        <v>1</v>
       </c>
       <c r="BY2">
-        <v>0.3022751049207128</v>
+        <v>1</v>
       </c>
       <c r="BZ2">
-        <v>0.3354105422135393</v>
+        <v>1</v>
       </c>
       <c r="CA2">
-        <v>0.4209402034097407</v>
+        <v>1</v>
       </c>
       <c r="CB2">
-        <v>0.5323538293122932</v>
+        <v>1</v>
       </c>
       <c r="CC2">
-        <v>0.5925631702918646</v>
+        <v>1</v>
       </c>
       <c r="CD2">
-        <v>0.5977496273385144</v>
+        <v>1</v>
       </c>
       <c r="CE2">
-        <v>0.6149425903070371</v>
+        <v>1</v>
       </c>
       <c r="CF2">
-        <v>0.661647551157272</v>
+        <v>1</v>
       </c>
       <c r="CG2">
-        <v>0.7177047526700556</v>
+        <v>1</v>
       </c>
       <c r="CH2">
-        <v>0.785408141751756</v>
+        <v>1</v>
       </c>
       <c r="CI2">
-        <v>0.8386130862913206</v>
+        <v>1</v>
       </c>
       <c r="CJ2">
-        <v>0.8612088071449666</v>
+        <v>1</v>
       </c>
       <c r="CK2">
-        <v>0.8688435716151872</v>
+        <v>1</v>
       </c>
       <c r="CL2">
-        <v>0.8691555036295784</v>
+        <v>1</v>
       </c>
       <c r="CM2">
-        <v>0.8859250705836633</v>
+        <v>1</v>
       </c>
       <c r="CN2">
-        <v>0.9069620111167108</v>
+        <v>1</v>
       </c>
       <c r="CO2">
-        <v>0.9230659917022049</v>
+        <v>1</v>
       </c>
       <c r="CP2">
-        <v>0.9405395150903483</v>
+        <v>1</v>
       </c>
       <c r="CQ2">
-        <v>0.9660286495763842</v>
+        <v>1</v>
       </c>
       <c r="CR2">
         <v>1</v>
@@ -3701,10 +3842,28 @@
       <c r="DO2">
         <v>1</v>
       </c>
+      <c r="DP2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>1</v>
+      </c>
+      <c r="DR2">
+        <v>1</v>
+      </c>
+      <c r="DS2">
+        <v>1</v>
+      </c>
+      <c r="DT2">
+        <v>1</v>
+      </c>
+      <c r="DU2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:119">
+    <row r="3" spans="1:125">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3755,315 +3914,333 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.05335759838325946</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1104103603049431</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.1579479674120038</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.1849630372655537</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.1940364686541754</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.1941209618056607</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.1971392513979664</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.2121459895064187</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.2464378405638917</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.3007198924691872</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.3667286688476467</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.4358735971038951</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.4938344036531077</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.5307604905264922</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.5472251547751961</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.5515464578577391</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.5515464578577391</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.5529342267659941</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.5569728595989184</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.5582036274384755</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.5590770409026338</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.5731253282820163</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.6059836333539075</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.64625435545979</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.6751459826469494</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.6862108284215567</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.6862892090376822</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.6919045659557133</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.7187407469912558</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.7942865168754965</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.9273342898631239</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>1</v>
+        <v>0.2395771613686755</v>
       </c>
       <c r="CN3">
-        <v>1</v>
+        <v>0.2434916826599542</v>
       </c>
       <c r="CO3">
-        <v>1</v>
+        <v>0.2489527964566983</v>
       </c>
       <c r="CP3">
-        <v>1</v>
+        <v>0.3871485738635981</v>
       </c>
       <c r="CQ3">
-        <v>1</v>
+        <v>0.5153797325429799</v>
       </c>
       <c r="CR3">
-        <v>1</v>
+        <v>0.546234472325124</v>
       </c>
       <c r="CS3">
-        <v>1</v>
+        <v>0.5559302503819592</v>
       </c>
       <c r="CT3">
-        <v>1</v>
+        <v>0.5767780591921567</v>
       </c>
       <c r="CU3">
-        <v>1</v>
+        <v>0.6544206527345182</v>
       </c>
       <c r="CV3">
-        <v>1</v>
+        <v>0.7534869970723188</v>
       </c>
       <c r="CW3">
-        <v>1</v>
+        <v>0.7599900639091139</v>
       </c>
       <c r="CX3">
-        <v>1</v>
+        <v>0.7658590480088998</v>
       </c>
       <c r="CY3">
-        <v>1</v>
+        <v>0.7732615620328886</v>
       </c>
       <c r="CZ3">
-        <v>1</v>
+        <v>0.7732860469191951</v>
       </c>
       <c r="DA3">
-        <v>1</v>
+        <v>0.7733261452127196</v>
       </c>
       <c r="DB3">
-        <v>1</v>
+        <v>0.7773597431718491</v>
       </c>
       <c r="DC3">
-        <v>1</v>
+        <v>0.7804371886815422</v>
       </c>
       <c r="DD3">
-        <v>1</v>
+        <v>0.7804461968046694</v>
       </c>
       <c r="DE3">
-        <v>1</v>
+        <v>0.7804461968046694</v>
       </c>
       <c r="DF3">
-        <v>1</v>
+        <v>0.7820377544818136</v>
       </c>
       <c r="DG3">
-        <v>1</v>
+        <v>0.7974900340447341</v>
       </c>
       <c r="DH3">
-        <v>1</v>
+        <v>0.8717151276352153</v>
       </c>
       <c r="DI3">
-        <v>1</v>
+        <v>0.8735676232827757</v>
       </c>
       <c r="DJ3">
-        <v>1</v>
+        <v>0.8957206931707401</v>
       </c>
       <c r="DK3">
-        <v>1</v>
+        <v>0.8979895755770202</v>
       </c>
       <c r="DL3">
-        <v>1</v>
+        <v>0.9096690426333461</v>
       </c>
       <c r="DM3">
-        <v>1</v>
+        <v>0.9101061333002464</v>
       </c>
       <c r="DN3">
-        <v>1</v>
+        <v>0.9387687830889679</v>
       </c>
       <c r="DO3">
-        <v>1</v>
+        <v>0.9496687028140937</v>
+      </c>
+      <c r="DP3">
+        <v>0.9539066757685221</v>
+      </c>
+      <c r="DQ3">
+        <v>0.9590749377350855</v>
+      </c>
+      <c r="DR3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DS3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DT3">
+        <v>0.9999999999999998</v>
+      </c>
+      <c r="DU3">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:119">
+    <row r="4" spans="1:125">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4282,506 +4459,542 @@
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.001251773888613585</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.002602443429510333</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.00382078406401375</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.006348852485418928</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.007280822949630294</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.01137550852840817</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.01293765084256009</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.02682633309995976</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.03775072457401534</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.08536803947566571</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.1265585054327777</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.1268115388758616</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.1279167238271823</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.1373892383632852</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.1892065960801267</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.2234392781439212</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.2239220732436234</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.2330268477279807</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.3021402546755088</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.425717579965147</v>
+        <v>0.1770741469238001</v>
       </c>
       <c r="CP4">
-        <v>0.5358155523659636</v>
+        <v>0.1772428389380001</v>
       </c>
       <c r="CQ4">
-        <v>0.5759808606056867</v>
+        <v>0.1860253179779105</v>
       </c>
       <c r="CR4">
-        <v>0.5762970234268234</v>
+        <v>0.244746521960266</v>
       </c>
       <c r="CS4">
-        <v>0.6203547604036523</v>
+        <v>0.3941891571040056</v>
       </c>
       <c r="CT4">
-        <v>0.7155083325685931</v>
+        <v>0.4871631943200161</v>
       </c>
       <c r="CU4">
-        <v>0.8073398343266319</v>
+        <v>0.4998766198005722</v>
       </c>
       <c r="CV4">
-        <v>0.8739253641977254</v>
+        <v>0.5061197058706121</v>
       </c>
       <c r="CW4">
-        <v>0.9304739530445479</v>
+        <v>0.5349821006733557</v>
       </c>
       <c r="CX4">
-        <v>0.9733532162771782</v>
+        <v>0.6845063535300341</v>
       </c>
       <c r="CY4">
-        <v>0.9823577717434387</v>
+        <v>0.7065304326403499</v>
       </c>
       <c r="CZ4">
-        <v>0.9842467454852589</v>
+        <v>0.7082270411468892</v>
       </c>
       <c r="DA4">
-        <v>1</v>
+        <v>0.7415408554898315</v>
       </c>
       <c r="DB4">
-        <v>1</v>
+        <v>0.7518545170257968</v>
       </c>
       <c r="DC4">
-        <v>1</v>
+        <v>0.7549099161596124</v>
       </c>
       <c r="DD4">
-        <v>1</v>
+        <v>0.7572267520960893</v>
       </c>
       <c r="DE4">
-        <v>1</v>
+        <v>0.7589930157451991</v>
       </c>
       <c r="DF4">
-        <v>1</v>
+        <v>0.7627464138908858</v>
       </c>
       <c r="DG4">
-        <v>1</v>
+        <v>0.7627464138908858</v>
       </c>
       <c r="DH4">
-        <v>1</v>
+        <v>0.7633049571911628</v>
       </c>
       <c r="DI4">
-        <v>1</v>
+        <v>0.7743940039995207</v>
       </c>
       <c r="DJ4">
-        <v>1</v>
+        <v>0.8511900343631595</v>
       </c>
       <c r="DK4">
-        <v>1</v>
+        <v>0.8511900343631595</v>
       </c>
       <c r="DL4">
-        <v>1</v>
+        <v>0.8886028489116468</v>
       </c>
       <c r="DM4">
-        <v>1</v>
+        <v>0.889016848962494</v>
       </c>
       <c r="DN4">
-        <v>1</v>
+        <v>0.8919706626797197</v>
       </c>
       <c r="DO4">
+        <v>0.8919706626797197</v>
+      </c>
+      <c r="DP4">
+        <v>0.9306737615940344</v>
+      </c>
+      <c r="DQ4">
+        <v>0.9492640430729787</v>
+      </c>
+      <c r="DR4">
+        <v>0.950539664582934</v>
+      </c>
+      <c r="DS4">
+        <v>0.9784129207027555</v>
+      </c>
+      <c r="DT4">
+        <v>1</v>
+      </c>
+      <c r="DU4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:119">
+    <row r="5" spans="1:125">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5">
-        <v>0.07448657604322743</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1139894703111868</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1473993683771199</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1787406546919112</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1834390857838991</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1910111559097365</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2703198916229785</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4215343612773929</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.5514246954355171</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6560120650086504</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.7166677401668837</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7286245563235835</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7286245563235835</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7348165602867469</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7396326822860777</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.7396326822860777</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.7396326822860777</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.7396326822860777</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.7396702147604494</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.7404441465119905</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.754851153492356</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.7771610261144021</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.7819056030646621</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.7834124712428384</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.79426042076529</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.7988016637989828</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.8007856965412631</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.833281645623426</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.8931109549064823</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.9567950426601499</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.9929910981037828</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.9999999999999997</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.9999999999999997</v>
+        <v>0.1698967765096834</v>
       </c>
       <c r="CQ5">
-        <v>0.9999999999999997</v>
+        <v>0.1702809089543718</v>
       </c>
       <c r="CR5">
-        <v>0.9999999999999997</v>
+        <v>0.1905868225060354</v>
       </c>
       <c r="CS5">
-        <v>0.9999999999999997</v>
+        <v>0.2476243483020886</v>
       </c>
       <c r="CT5">
-        <v>0.9999999999999997</v>
+        <v>0.4151953480530438</v>
       </c>
       <c r="CU5">
-        <v>0.9999999999999997</v>
+        <v>0.5007345669258638</v>
       </c>
       <c r="CV5">
-        <v>0.9999999999999997</v>
+        <v>0.5028953766086344</v>
       </c>
       <c r="CW5">
-        <v>0.9999999999999997</v>
+        <v>0.5143358667025161</v>
       </c>
       <c r="CX5">
-        <v>0.9999999999999997</v>
+        <v>0.6294268902287171</v>
       </c>
       <c r="CY5">
-        <v>0.9999999999999997</v>
+        <v>0.7346572091186795</v>
       </c>
       <c r="CZ5">
-        <v>0.9999999999999997</v>
+        <v>0.7553766354377778</v>
       </c>
       <c r="DA5">
-        <v>0.9999999999999997</v>
+        <v>0.7583786639341725</v>
       </c>
       <c r="DB5">
-        <v>0.9999999999999997</v>
+        <v>0.7660648545636942</v>
       </c>
       <c r="DC5">
-        <v>0.9999999999999997</v>
+        <v>0.7670108080169783</v>
       </c>
       <c r="DD5">
-        <v>0.9999999999999997</v>
+        <v>0.7673279556582673</v>
       </c>
       <c r="DE5">
-        <v>0.9999999999999997</v>
+        <v>0.7687512902842732</v>
       </c>
       <c r="DF5">
-        <v>0.9999999999999997</v>
+        <v>0.7764041144035424</v>
       </c>
       <c r="DG5">
-        <v>0.9999999999999997</v>
+        <v>0.776530746125633</v>
       </c>
       <c r="DH5">
-        <v>0.9999999999999997</v>
+        <v>0.776535981436779</v>
       </c>
       <c r="DI5">
-        <v>0.9999999999999997</v>
+        <v>0.7768802604855549</v>
       </c>
       <c r="DJ5">
-        <v>0.9999999999999997</v>
+        <v>0.7849055357187392</v>
       </c>
       <c r="DK5">
-        <v>0.9999999999999997</v>
+        <v>0.8378919158714351</v>
       </c>
       <c r="DL5">
-        <v>0.9999999999999997</v>
+        <v>0.8379778600609687</v>
       </c>
       <c r="DM5">
-        <v>0.9999999999999997</v>
+        <v>0.865106761475082</v>
       </c>
       <c r="DN5">
-        <v>0.9999999999999997</v>
+        <v>0.8678626689827167</v>
       </c>
       <c r="DO5">
-        <v>0.9999999999999997</v>
+        <v>0.8828299670057574</v>
+      </c>
+      <c r="DP5">
+        <v>0.882830192052642</v>
+      </c>
+      <c r="DQ5">
+        <v>0.9287866092729649</v>
+      </c>
+      <c r="DR5">
+        <v>0.9666820897472896</v>
+      </c>
+      <c r="DS5">
+        <v>0.9673257401588258</v>
+      </c>
+      <c r="DT5">
+        <v>0.9848789993019753</v>
+      </c>
+      <c r="DU5">
+        <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:119">
+    <row r="6" spans="1:125">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -5042,100 +5255,118 @@
         <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.002219857499038542</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.002936420792021959</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.03244969902169243</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.04157094151284224</v>
+        <v>0.1501466289879281</v>
       </c>
       <c r="CN6">
-        <v>0.1417271597765118</v>
+        <v>0.1541506851422073</v>
       </c>
       <c r="CO6">
-        <v>0.1459343812652311</v>
+        <v>0.1804865039310172</v>
       </c>
       <c r="CP6">
-        <v>0.2463719833384999</v>
+        <v>0.1918130561165449</v>
       </c>
       <c r="CQ6">
-        <v>0.2772082494745761</v>
+        <v>0.2743283071216501</v>
       </c>
       <c r="CR6">
-        <v>0.2780891722681096</v>
+        <v>0.4552937304611668</v>
       </c>
       <c r="CS6">
-        <v>0.3363173904210147</v>
+        <v>0.5372073669014568</v>
       </c>
       <c r="CT6">
-        <v>0.342545975811988</v>
+        <v>0.5382482955127642</v>
       </c>
       <c r="CU6">
-        <v>0.3891771225340593</v>
+        <v>0.5425744768484627</v>
       </c>
       <c r="CV6">
-        <v>0.4885082094752465</v>
+        <v>0.5535861154707433</v>
       </c>
       <c r="CW6">
-        <v>0.5011766041861052</v>
+        <v>0.682267060540656</v>
       </c>
       <c r="CX6">
-        <v>0.5495942138048039</v>
+        <v>0.6970735398519486</v>
       </c>
       <c r="CY6">
-        <v>0.6710488112137517</v>
+        <v>0.7170693482977448</v>
       </c>
       <c r="CZ6">
-        <v>0.7498389928083257</v>
+        <v>0.7736686862083848</v>
       </c>
       <c r="DA6">
-        <v>0.7674875465573778</v>
+        <v>0.7737370146214878</v>
       </c>
       <c r="DB6">
-        <v>0.7682436834181203</v>
+        <v>0.7765161051017286</v>
       </c>
       <c r="DC6">
-        <v>0.7884113427114581</v>
+        <v>0.7837768504565307</v>
       </c>
       <c r="DD6">
-        <v>0.8141540893362021</v>
+        <v>0.7840947061409845</v>
       </c>
       <c r="DE6">
-        <v>0.8385023703536451</v>
+        <v>0.7913265814715428</v>
       </c>
       <c r="DF6">
-        <v>0.8687653861026733</v>
+        <v>0.8013020588712376</v>
       </c>
       <c r="DG6">
-        <v>0.9120267916480133</v>
+        <v>0.8028630577600102</v>
       </c>
       <c r="DH6">
-        <v>0.9403312127065526</v>
+        <v>0.8582600271632591</v>
       </c>
       <c r="DI6">
-        <v>0.9454045391888269</v>
+        <v>0.8596958435948736</v>
       </c>
       <c r="DJ6">
-        <v>0.9470026343096578</v>
+        <v>0.8918676122239657</v>
       </c>
       <c r="DK6">
-        <v>0.956749891069761</v>
+        <v>0.9055028258275579</v>
       </c>
       <c r="DL6">
-        <v>0.9648766349401114</v>
+        <v>0.9208191868375838</v>
       </c>
       <c r="DM6">
-        <v>0.9709698918202709</v>
+        <v>0.9231652150683362</v>
       </c>
       <c r="DN6">
-        <v>0.9806996689983311</v>
+        <v>0.9231652150683362</v>
       </c>
       <c r="DO6">
-        <v>1</v>
+        <v>0.9558578428419283</v>
+      </c>
+      <c r="DP6">
+        <v>0.9610853093871912</v>
+      </c>
+      <c r="DQ6">
+        <v>0.999535196193693</v>
+      </c>
+      <c r="DR6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DS6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DT6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DU6">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -5153,302 +5384,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>0.01574900409534169</v>
+        <v>0.1592584188979818</v>
       </c>
       <c r="F2">
-        <v>0.5323538293122932</v>
+        <v>0.5190538215070313</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L2">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.05335759838325946</v>
+        <v>0.2395771613686755</v>
       </c>
       <c r="F3">
-        <v>0.5307604905264922</v>
+        <v>0.5153797325429799</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L3">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.01137550852840817</v>
+        <v>0.1770741469238001</v>
       </c>
       <c r="F4">
-        <v>0.5358155523659636</v>
+        <v>0.5061197058706121</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L4">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="E5">
-        <v>0.1473993683771199</v>
+        <v>0.1698967765096834</v>
       </c>
       <c r="F5">
-        <v>0.5514246954355171</v>
+        <v>0.5007345669258638</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L5">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>0.03244969902169243</v>
+        <v>0.1501466289879281</v>
       </c>
       <c r="F6">
-        <v>0.5011766041861052</v>
+        <v>0.5372073669014568</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L6">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5466,302 +5682,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>0.01574900409534169</v>
+        <v>0.1592584188979818</v>
       </c>
       <c r="F2">
-        <v>0.7177047526700556</v>
+        <v>0.7936227189211544</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L2">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E3">
-        <v>0.05335759838325946</v>
+        <v>0.2395771613686755</v>
       </c>
       <c r="F3">
-        <v>0.7187407469912558</v>
+        <v>0.7534869970723188</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L3">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E4">
-        <v>0.01137550852840817</v>
+        <v>0.1770741469238001</v>
       </c>
       <c r="F4">
-        <v>0.7155083325685931</v>
+        <v>0.7065304326403499</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L4">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="E5">
-        <v>0.1473993683771199</v>
+        <v>0.1698967765096834</v>
       </c>
       <c r="F5">
-        <v>0.7166677401668837</v>
+        <v>0.7346572091186795</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L5">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6">
-        <v>0.03244969902169243</v>
+        <v>0.1501466289879281</v>
       </c>
       <c r="F6">
-        <v>0.7498389928083257</v>
+        <v>0.7170693482977448</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L6">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5779,302 +5980,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>0.01574900409534169</v>
+        <v>0.1592584188979818</v>
       </c>
       <c r="F2">
-        <v>0.8386130862913206</v>
+        <v>0.8629103969157306</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L2">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>0.05335759838325946</v>
+        <v>0.2395771613686755</v>
       </c>
       <c r="F3">
-        <v>0.9273342898631239</v>
+        <v>0.8717151276352153</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L3">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E4">
-        <v>0.01137550852840817</v>
+        <v>0.1770741469238001</v>
       </c>
       <c r="F4">
-        <v>0.8073398343266319</v>
+        <v>0.8511900343631595</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L4">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>114</v>
       </c>
       <c r="E5">
-        <v>0.1473993683771199</v>
+        <v>0.1698967765096834</v>
       </c>
       <c r="F5">
-        <v>0.8007856965412631</v>
+        <v>0.8378919158714351</v>
       </c>
       <c r="G5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L5">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6">
-        <v>0.03244969902169243</v>
+        <v>0.1501466289879281</v>
       </c>
       <c r="F6">
-        <v>0.8141540893362021</v>
+        <v>0.8013020588712376</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L6">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6092,222 +6278,213 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01574900409534169</v>
+        <v>0.1592584188979818</v>
       </c>
       <c r="F2">
-        <v>0.9069620111167108</v>
+        <v>0.9333673307494368</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>700</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L2">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M2">
         <v>700</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E3">
-        <v>0.05335759838325946</v>
+        <v>0.2395771613686755</v>
       </c>
       <c r="F3">
-        <v>0.9273342898631239</v>
+        <v>0.9096690426333461</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>700</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J3" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L3">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M3">
         <v>700</v>
       </c>
       <c r="N3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O3" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P3" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="E4">
-        <v>0.01137550852840817</v>
+        <v>0.1770741469238001</v>
       </c>
       <c r="F4">
-        <v>0.9304739530445479</v>
+        <v>0.9306737615940344</v>
       </c>
       <c r="G4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>700</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L4">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M4">
         <v>700</v>
       </c>
       <c r="N4" t="s">
-        <v>142</v>
-      </c>
-      <c r="O4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="E5">
-        <v>0.1473993683771199</v>
+        <v>0.1698967765096834</v>
       </c>
       <c r="F5">
-        <v>0.9567950426601499</v>
+        <v>0.9287866092729649</v>
       </c>
       <c r="G5">
         <v>27</v>
@@ -6316,78 +6493,72 @@
         <v>700</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L5">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M5">
         <v>700</v>
       </c>
       <c r="N5" t="s">
-        <v>142</v>
-      </c>
-      <c r="O5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P5" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E6">
-        <v>0.03244969902169243</v>
+        <v>0.1501466289879281</v>
       </c>
       <c r="F6">
-        <v>0.9120267916480133</v>
+        <v>0.9055028258275579</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="L6">
-        <v>338</v>
+        <v>121</v>
       </c>
       <c r="M6">
         <v>700</v>
       </c>
       <c r="N6" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
